--- a/biology/Zoologie/Charaxes_etesipe/Charaxes_etesipe.xlsx
+++ b/biology/Zoologie/Charaxes_etesipe/Charaxes_etesipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes etesipe est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,86 +523,93 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes etesipe a été nommé par Jean-Baptiste Godart en 1824.
-Synonyme : Nymphalis etesipe Godart, 1824[1];
-Noms vernaculaires
-Il se nomme Savannah Charaxes en anglais[1].
-Sous-espèces
-Charaxes etesipe etesipe présent en Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Bénin, Togo, Nigeria, Ouganda, dans le sud du Tchad et du Soudan, le nord de l'Angola et du Kenya
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes etesipe a été nommé par Jean-Baptiste Godart en 1824.
+Synonyme : Nymphalis etesipe Godart, 1824;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Savannah Charaxes en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charaxes etesipe etesipe présent en Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Bénin, Togo, Nigeria, Ouganda, dans le sud du Tchad et du Soudan, le nord de l'Angola et du Kenya
 Charaxes etesipe abyssinicus Rothschild &amp; Jordan, 1900 ; en Éthiopie.
 Charaxes etesipe gordoni van Someren, 1935 ; au Kenya.
 Charaxes etesipe hercules Turlin &amp; Lequeux, 2002 ; en Ouganda.
 Charaxes etesipe patrizii Storace, 1949 ; en Somalie.
 Charaxes etesipe pemba van Someren, 1966 ;
 Charaxes etesipe shaba Berger, 1981 ; au Zaïre (Shaba)
-Charaxes etesipe tavetensis Rothschild, 1894 ; au Malawi, Mozambique, Kenya et en Tanzanie[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_etesipe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon qui est caractérisé par deux queues aux postérieures et qui présente un dimorphisme sexuel. Le mâle d'une envergure de 80-85 mm est plus petit que la femelle. Il présente en plus d'une large bande claire de petites taches blanches et bleues[2]. 
-La femelle plus grande, (95 - 100 mm) est polymorphe, le plus couramment blanche ou jaune, ou, beaucoup plus rare, bleue.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Charaxes_etesipe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole en deux générations, d'août à octobre, puis de mars à juin.
-Plantes hôtes
-Les plantes hôtes des chenilles sont des Entada dont Entada abyssinica et Ricinus communis, Afzelia quanzensis[1].
-</t>
+Charaxes etesipe tavetensis Rothschild, 1894 ; au Malawi, Mozambique, Kenya et en Tanzanie.</t>
         </is>
       </c>
     </row>
@@ -615,17 +634,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon qui est caractérisé par deux queues aux postérieures et qui présente un dimorphisme sexuel. Le mâle d'une envergure de 80-85 mm est plus petit que la femelle. Il présente en plus d'une large bande claire de petites taches blanches et bleues. 
+La femelle plus grande, (95 - 100 mm) est polymorphe, le plus couramment blanche ou jaune, ou, beaucoup plus rare, bleue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations, d'août à octobre, puis de mars à juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des Entada dont Entada abyssinica et Ricinus communis, Afzelia quanzensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent dans tout le sud de l'Afrique en Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Bénin, Togo, Nigeria, Ouganda, dans le sud du Tchad et du Soudan, le nord de l'Angola et du Kenya, au Zaïre, Ouganda, Mozambique, Kenya et en Tanzanie et dans l'île de Pemba.
-Biotope
-Il réside dans les zones où poussent les plantes hôtes de ses chenilles.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans tout le sud de l'Afrique en Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Bénin, Togo, Nigeria, Ouganda, dans le sud du Tchad et du Soudan, le nord de l'Angola et du Kenya, au Zaïre, Ouganda, Mozambique, Kenya et en Tanzanie et dans l'île de Pemba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_etesipe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones où poussent les plantes hôtes de ses chenilles.
 Sur les autres projets Wikimedia :
 Charaxes etesipe, sur Wikimedia CommonsCharaxes etesipe, sur Wikispecies
-Protection</t>
+</t>
         </is>
       </c>
     </row>
